--- a/datasets/module compensating effects/plotting files/plot_vulnerability.xlsx
+++ b/datasets/module compensating effects/plotting files/plot_vulnerability.xlsx
@@ -9,10 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,9 +162,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1088,12 +1086,14 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.625" style="1"/>
+    <col min="1" max="2" width="9.625" style="1"/>
+    <col min="3" max="3" width="11.125" style="1"/>
+    <col min="4" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2735,7 +2735,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D100" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D117" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2753,9 +2753,11 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.625" style="1"/>
+    <col min="1" max="2" width="9.625" style="1"/>
+    <col min="3" max="4" width="11.125" style="1"/>
+    <col min="5" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -4401,21 +4403,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>